--- a/Resource Analysis UI Mockup.xlsx
+++ b/Resource Analysis UI Mockup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpire\Code\Resource Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220C7F6C-921F-4D5D-9BC4-A093770DC5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9802DE3D-BCAC-4EF9-8E02-C890A8974C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ED383841-D49B-4BD7-8CA2-1B755375DC49}"/>
   </bookViews>
@@ -403,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -459,39 +459,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -843,7 +842,7 @@
   <dimension ref="C1:W38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,10 +854,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="24"/>
+      <c r="K1" s="25"/>
       <c r="N1" t="s">
         <v>24</v>
       </c>
@@ -943,34 +942,33 @@
     </row>
     <row r="7" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="21" t="s">
+      <c r="E7" s="27"/>
+      <c r="F7" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="21" t="s">
+      <c r="G7" s="27"/>
+      <c r="H7" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="27" t="s">
+      <c r="I7" s="27"/>
+      <c r="L7" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="28"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="27" t="s">
+      <c r="M7" s="29"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="33" t="s">
+      <c r="P7" s="29"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="S7" s="21"/>
-      <c r="T7" s="22"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="27"/>
       <c r="W7" t="s">
         <v>30</v>
       </c>
@@ -995,17 +993,16 @@
       <c r="I8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="25"/>
-      <c r="L8" s="30" t="s">
+      <c r="L8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="M8" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="31" t="s">
+      <c r="N8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="30" t="s">
+      <c r="O8" s="22" t="s">
         <v>18</v>
       </c>
       <c r="P8" s="15" t="s">
@@ -1014,7 +1011,7 @@
       <c r="Q8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="R8" s="30" t="s">
+      <c r="R8" s="22" t="s">
         <v>18</v>
       </c>
       <c r="S8" s="15" t="s">
@@ -1062,19 +1059,19 @@
         <f>SUBTOTAL(9,L10:L21)</f>
         <v>5</v>
       </c>
-      <c r="M9" s="32">
+      <c r="M9" s="24">
         <f>SUBTOTAL(9,M10:M21)</f>
         <v>3.5416666666666665</v>
       </c>
       <c r="N9" s="9">
-        <f t="shared" ref="N9:T9" si="1">SUBTOTAL(9,N10:N21)</f>
+        <f t="shared" ref="N9:Q9" si="1">SUBTOTAL(9,N10:N21)</f>
         <v>2.9166666666666665</v>
       </c>
       <c r="O9" s="8">
         <f>SUBTOTAL(9,O10:O21)</f>
         <v>5</v>
       </c>
-      <c r="P9" s="32">
+      <c r="P9" s="24">
         <f t="shared" si="1"/>
         <v>3.5416666666666665</v>
       </c>
@@ -1086,7 +1083,7 @@
         <f t="shared" ref="R9" si="2">L9+O9</f>
         <v>10</v>
       </c>
-      <c r="S9" s="32">
+      <c r="S9" s="24">
         <f>M9+P9</f>
         <v>7.083333333333333</v>
       </c>
@@ -1379,7 +1376,7 @@
       <c r="L14" s="8">
         <v>1.6666666666666667</v>
       </c>
-      <c r="M14" s="32">
+      <c r="M14" s="24">
         <f>SUBTOTAL(9,M15:M18)</f>
         <v>1.0416666666666665</v>
       </c>
@@ -1798,15 +1795,15 @@
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C24" s="3"/>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="22"/>
+      <c r="E24" s="27"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="23" t="s">
+      <c r="L24" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="M24" s="22"/>
+      <c r="M24" s="27"/>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C25" s="3"/>
@@ -2106,6 +2103,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="R7:T7"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="L7:N7"/>
@@ -2113,8 +2112,6 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="L24:M24"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="R7:T7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{AF915600-9F3C-43B7-B825-E825034E34D4}">

--- a/Resource Analysis UI Mockup.xlsx
+++ b/Resource Analysis UI Mockup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpire\Code\Resource Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9802DE3D-BCAC-4EF9-8E02-C890A8974C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1BA4AB-09E6-41BA-A4D0-3938CDA6A528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ED383841-D49B-4BD7-8CA2-1B755375DC49}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="39">
   <si>
     <t>Task name 1</t>
   </si>
@@ -71,9 +71,6 @@
     <t>over:</t>
   </si>
   <si>
-    <t>Actual A.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> week 01-01-24</t>
   </si>
   <si>
@@ -150,6 +147,12 @@
   </si>
   <si>
     <t>Props entities</t>
+  </si>
+  <si>
+    <t>Missing unassigned</t>
+  </si>
+  <si>
+    <t>Actual</t>
   </si>
 </sst>
 </file>
@@ -403,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -471,30 +474,35 @@
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,8 +521,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DE6C82AE-DBB7-48CB-BF1D-AC895CC0633A}" name="Table1" displayName="Table1" ref="W4:W12" totalsRowShown="0">
-  <autoFilter ref="W4:W12" xr:uid="{DE6C82AE-DBB7-48CB-BF1D-AC895CC0633A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DE6C82AE-DBB7-48CB-BF1D-AC895CC0633A}" name="Table1" displayName="Table1" ref="AE4:AE12" totalsRowShown="0">
+  <autoFilter ref="AE4:AE12" xr:uid="{DE6C82AE-DBB7-48CB-BF1D-AC895CC0633A}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{7A1703F8-6A83-4D11-9069-C73E86E3167E}" name="Props entities"/>
   </tableColumns>
@@ -839,10 +847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D39C10-7E28-4F68-B6EC-A4DA1276D0E5}">
-  <dimension ref="C1:W38"/>
+  <dimension ref="C1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="H10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,31 +858,36 @@
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="9" width="10.28515625" style="7" customWidth="1"/>
     <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="9.140625" customWidth="1"/>
+    <col min="31" max="31" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="J1" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="25"/>
+    <row r="1" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="J1" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="31"/>
       <c r="N1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="3:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="3:31" x14ac:dyDescent="0.25">
       <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
@@ -885,19 +898,19 @@
         <v>3</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="3:23" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="3:31" x14ac:dyDescent="0.25">
       <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
@@ -911,122 +924,125 @@
         <v>4.114583333333333</v>
       </c>
     </row>
-    <row r="4" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:31" x14ac:dyDescent="0.25">
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
-      <c r="W4" t="s">
+      <c r="AE4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="W5" t="s">
+      <c r="AE5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="D6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="D6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="W6" t="s">
+    <row r="7" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C7" s="3"/>
+      <c r="D7" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="30"/>
+      <c r="H7" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="30"/>
+      <c r="L7" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="26"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="S7" s="29"/>
+      <c r="T7" s="30"/>
+      <c r="AE7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C7" s="3"/>
-      <c r="D7" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="27"/>
-      <c r="L7" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="S7" s="26"/>
-      <c r="T7" s="27"/>
-      <c r="W7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
       <c r="D8" s="13" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H8" s="15" t="s">
         <v>3</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M8" s="21" t="s">
         <v>3</v>
       </c>
       <c r="N8" s="23" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P8" s="15" t="s">
         <v>3</v>
       </c>
       <c r="Q8" s="14" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="R8" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S8" s="15" t="s">
         <v>3</v>
       </c>
       <c r="T8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="W8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="3:23" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="8">
         <f>SUBTOTAL(9,D10:D19)</f>
@@ -1053,7 +1069,7 @@
         <v>17.5</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L9" s="8">
         <f>SUBTOTAL(9,L10:L21)</f>
@@ -1091,11 +1107,38 @@
         <f>N9+Q9</f>
         <v>5.833333333333333</v>
       </c>
-      <c r="W9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="U9" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="V9" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="W9" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="X9" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y9" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA9" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB9" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
         <v>4</v>
       </c>
@@ -1160,11 +1203,47 @@
         <f>N10+Q10</f>
         <v>1.75</v>
       </c>
-      <c r="W10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="U10" s="34">
+        <f>L10*1440</f>
+        <v>2400</v>
+      </c>
+      <c r="V10" s="34">
+        <f t="shared" ref="V10:AB10" si="5">M10*1440</f>
+        <v>1800</v>
+      </c>
+      <c r="W10" s="34">
+        <f t="shared" si="5"/>
+        <v>1260</v>
+      </c>
+      <c r="X10" s="35">
+        <f t="shared" si="5"/>
+        <v>2400</v>
+      </c>
+      <c r="Y10" s="35">
+        <f t="shared" si="5"/>
+        <v>1800</v>
+      </c>
+      <c r="Z10" s="35">
+        <f t="shared" si="5"/>
+        <v>1260</v>
+      </c>
+      <c r="AA10" s="34">
+        <f t="shared" si="5"/>
+        <v>4800</v>
+      </c>
+      <c r="AB10" s="34">
+        <f t="shared" si="5"/>
+        <v>3600</v>
+      </c>
+      <c r="AC10" s="34">
+        <f>T10*1440</f>
+        <v>2520</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
         <v>0</v>
       </c>
@@ -1193,7 +1272,7 @@
         <v>1.8333333333333333</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10">
@@ -1219,14 +1298,50 @@
         <v>2.5</v>
       </c>
       <c r="T11" s="11">
-        <f t="shared" ref="T11:T21" si="5">N11+Q11</f>
+        <f t="shared" ref="T11:T21" si="6">N11+Q11</f>
         <v>1.75</v>
       </c>
-      <c r="W11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="U11" s="34">
+        <f t="shared" ref="U11:U21" si="7">L11*1440</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="34">
+        <f t="shared" ref="V11:V21" si="8">M11*1440</f>
+        <v>1800</v>
+      </c>
+      <c r="W11" s="34">
+        <f t="shared" ref="W11:W21" si="9">N11*1440</f>
+        <v>1260</v>
+      </c>
+      <c r="X11" s="35">
+        <f t="shared" ref="X11:X21" si="10">O11*1440</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="35">
+        <f t="shared" ref="Y11:Y21" si="11">P11*1440</f>
+        <v>1800</v>
+      </c>
+      <c r="Z11" s="35">
+        <f t="shared" ref="Z11:Z21" si="12">Q11*1440</f>
+        <v>1260</v>
+      </c>
+      <c r="AA11" s="34">
+        <f t="shared" ref="AA11:AA21" si="13">R11*1440</f>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="34">
+        <f t="shared" ref="AB11:AB21" si="14">S11*1440</f>
+        <v>3600</v>
+      </c>
+      <c r="AC11" s="34">
+        <f t="shared" ref="AC11:AC21" si="15">T11*1440</f>
+        <v>2520</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C12" s="6" t="s">
         <v>6</v>
       </c>
@@ -1243,11 +1358,11 @@
         <v>0.375</v>
       </c>
       <c r="H12" s="10">
-        <f t="shared" ref="H12:H19" si="6">D12+F12</f>
+        <f t="shared" ref="H12:H19" si="16">D12+F12</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="I12" s="11">
-        <f t="shared" ref="I12:I19" si="7">E12+G12</f>
+        <f t="shared" ref="I12:I19" si="17">E12+G12</f>
         <v>0.75</v>
       </c>
       <c r="J12" s="10"/>
@@ -1278,14 +1393,50 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="T12" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
-      <c r="W12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="U12" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="34">
+        <f t="shared" si="8"/>
+        <v>600</v>
+      </c>
+      <c r="W12" s="34">
+        <f t="shared" si="9"/>
+        <v>540</v>
+      </c>
+      <c r="X12" s="35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="35">
+        <f t="shared" si="11"/>
+        <v>600</v>
+      </c>
+      <c r="Z12" s="35">
+        <f t="shared" si="12"/>
+        <v>540</v>
+      </c>
+      <c r="AA12" s="34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="34">
+        <f t="shared" si="14"/>
+        <v>1200</v>
+      </c>
+      <c r="AC12" s="34">
+        <f t="shared" si="15"/>
+        <v>1080</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
@@ -1302,11 +1453,11 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="H13" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="I13" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1.0833333333333333</v>
       </c>
       <c r="J13" s="10"/>
@@ -1337,11 +1488,47 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="T13" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="U13" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="34">
+        <f t="shared" si="8"/>
+        <v>1200</v>
+      </c>
+      <c r="W13" s="34">
+        <f t="shared" si="9"/>
+        <v>720</v>
+      </c>
+      <c r="X13" s="35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="35">
+        <f t="shared" si="11"/>
+        <v>1200</v>
+      </c>
+      <c r="Z13" s="35">
+        <f t="shared" si="12"/>
+        <v>720</v>
+      </c>
+      <c r="AA13" s="34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="34">
+        <f t="shared" si="14"/>
+        <v>2400</v>
+      </c>
+      <c r="AC13" s="34">
+        <f t="shared" si="15"/>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="14" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C14" s="5" t="s">
         <v>1</v>
       </c>
@@ -1362,11 +1549,11 @@
         <v>0.5</v>
       </c>
       <c r="H14" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="I14" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J14" s="10"/>
@@ -1381,18 +1568,18 @@
         <v>1.0416666666666665</v>
       </c>
       <c r="N14" s="19">
-        <f t="shared" ref="N14:Q14" si="8">SUBTOTAL(9,N15:N18)</f>
+        <f t="shared" ref="N14:Q14" si="18">SUBTOTAL(9,N15:N18)</f>
         <v>1.625</v>
       </c>
       <c r="O14" s="8">
         <v>1.6666666666666667</v>
       </c>
       <c r="P14" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>1.0416666666666665</v>
       </c>
       <c r="Q14" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>1.625</v>
       </c>
       <c r="R14" s="8">
@@ -1404,11 +1591,47 @@
         <v>2.083333333333333</v>
       </c>
       <c r="T14" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.25</v>
       </c>
-    </row>
-    <row r="15" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="U14" s="34">
+        <f t="shared" si="7"/>
+        <v>2400</v>
+      </c>
+      <c r="V14" s="34">
+        <f t="shared" si="8"/>
+        <v>1499.9999999999998</v>
+      </c>
+      <c r="W14" s="34">
+        <f t="shared" si="9"/>
+        <v>2340</v>
+      </c>
+      <c r="X14" s="35">
+        <f t="shared" si="10"/>
+        <v>2400</v>
+      </c>
+      <c r="Y14" s="35">
+        <f t="shared" si="11"/>
+        <v>1499.9999999999998</v>
+      </c>
+      <c r="Z14" s="35">
+        <f t="shared" si="12"/>
+        <v>2340</v>
+      </c>
+      <c r="AA14" s="34">
+        <f t="shared" si="13"/>
+        <v>4800</v>
+      </c>
+      <c r="AB14" s="34">
+        <f t="shared" si="14"/>
+        <v>2999.9999999999995</v>
+      </c>
+      <c r="AC14" s="34">
+        <f t="shared" si="15"/>
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="15" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C15" s="6" t="s">
         <v>6</v>
       </c>
@@ -1425,16 +1648,16 @@
         <v>0.5</v>
       </c>
       <c r="H15" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="I15" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10">
@@ -1442,16 +1665,16 @@
         <v>0.5</v>
       </c>
       <c r="N15" s="11">
-        <f t="shared" ref="N15:Q15" si="9">SUBTOTAL(9,N16:N16)</f>
+        <f t="shared" ref="N15:Q15" si="19">SUBTOTAL(9,N16:N16)</f>
         <v>0.54166666666666663</v>
       </c>
       <c r="O15" s="10"/>
       <c r="P15" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>0.5</v>
       </c>
       <c r="Q15" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="R15" s="10"/>
@@ -1460,11 +1683,47 @@
         <v>1</v>
       </c>
       <c r="T15" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0833333333333333</v>
       </c>
-    </row>
-    <row r="16" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="U15" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="34">
+        <f t="shared" si="8"/>
+        <v>720</v>
+      </c>
+      <c r="W15" s="34">
+        <f t="shared" si="9"/>
+        <v>780</v>
+      </c>
+      <c r="X15" s="35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="35">
+        <f t="shared" si="11"/>
+        <v>720</v>
+      </c>
+      <c r="Z15" s="35">
+        <f t="shared" si="12"/>
+        <v>780</v>
+      </c>
+      <c r="AA15" s="34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="34">
+        <f t="shared" si="14"/>
+        <v>1440</v>
+      </c>
+      <c r="AC15" s="34">
+        <f t="shared" si="15"/>
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="16" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
         <v>2</v>
       </c>
@@ -1485,11 +1744,11 @@
         <v>1.5</v>
       </c>
       <c r="H16" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>3.583333333333333</v>
       </c>
       <c r="I16" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="J16" s="10"/>
@@ -1520,11 +1779,47 @@
         <v>1</v>
       </c>
       <c r="T16" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0833333333333333</v>
       </c>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="U16" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="34">
+        <f t="shared" si="8"/>
+        <v>720</v>
+      </c>
+      <c r="W16" s="34">
+        <f t="shared" si="9"/>
+        <v>780</v>
+      </c>
+      <c r="X16" s="35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="35">
+        <f t="shared" si="11"/>
+        <v>720</v>
+      </c>
+      <c r="Z16" s="35">
+        <f t="shared" si="12"/>
+        <v>780</v>
+      </c>
+      <c r="AA16" s="34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="34">
+        <f t="shared" si="14"/>
+        <v>1440</v>
+      </c>
+      <c r="AC16" s="34">
+        <f t="shared" si="15"/>
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C17" s="5" t="s">
         <v>5</v>
       </c>
@@ -1545,11 +1840,11 @@
         <v>1.5</v>
       </c>
       <c r="H17" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>3.583333333333333</v>
       </c>
       <c r="I17" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="J17" s="10"/>
@@ -1562,16 +1857,16 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="N17" s="11">
-        <f t="shared" ref="N17" si="10">SUBTOTAL(9,N18:N18)</f>
+        <f t="shared" ref="N17" si="20">SUBTOTAL(9,N18:N18)</f>
         <v>1.0833333333333333</v>
       </c>
       <c r="O17" s="10"/>
       <c r="P17" s="10">
-        <f t="shared" ref="P17" si="11">SUBTOTAL(9,P18:P18)</f>
+        <f t="shared" ref="P17" si="21">SUBTOTAL(9,P18:P18)</f>
         <v>0.54166666666666663</v>
       </c>
       <c r="Q17" s="11">
-        <f t="shared" ref="Q17" si="12">SUBTOTAL(9,Q18:Q18)</f>
+        <f t="shared" ref="Q17" si="22">SUBTOTAL(9,Q18:Q18)</f>
         <v>1.0833333333333333</v>
       </c>
       <c r="R17" s="10"/>
@@ -1580,11 +1875,47 @@
         <v>1.0833333333333333</v>
       </c>
       <c r="T17" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1666666666666665</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="U17" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="34">
+        <f t="shared" si="8"/>
+        <v>780</v>
+      </c>
+      <c r="W17" s="34">
+        <f t="shared" si="9"/>
+        <v>1560</v>
+      </c>
+      <c r="X17" s="35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="35">
+        <f t="shared" si="11"/>
+        <v>780</v>
+      </c>
+      <c r="Z17" s="35">
+        <f t="shared" si="12"/>
+        <v>1560</v>
+      </c>
+      <c r="AA17" s="34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="34">
+        <f t="shared" si="14"/>
+        <v>1560</v>
+      </c>
+      <c r="AC17" s="34">
+        <f t="shared" si="15"/>
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C18" s="6" t="s">
         <v>7</v>
       </c>
@@ -1601,11 +1932,11 @@
         <v>1.0833333333333333</v>
       </c>
       <c r="H18" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.0833333333333333</v>
       </c>
       <c r="I18" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="J18" s="10"/>
@@ -1636,11 +1967,47 @@
         <v>1.0833333333333333</v>
       </c>
       <c r="T18" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1666666666666665</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="U18" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="34">
+        <f t="shared" si="8"/>
+        <v>780</v>
+      </c>
+      <c r="W18" s="34">
+        <f t="shared" si="9"/>
+        <v>1560</v>
+      </c>
+      <c r="X18" s="35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="35">
+        <f t="shared" si="11"/>
+        <v>780</v>
+      </c>
+      <c r="Z18" s="35">
+        <f t="shared" si="12"/>
+        <v>1560</v>
+      </c>
+      <c r="AA18" s="34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="34">
+        <f t="shared" si="14"/>
+        <v>1560</v>
+      </c>
+      <c r="AC18" s="34">
+        <f t="shared" si="15"/>
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C19" s="6" t="s">
         <v>8</v>
       </c>
@@ -1657,16 +2024,16 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="H19" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>2.5</v>
       </c>
       <c r="I19" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L19" s="8">
         <v>1.6666666666666667</v>
@@ -1676,18 +2043,18 @@
         <v>1.25</v>
       </c>
       <c r="N19" s="16">
-        <f t="shared" ref="N19:Q19" si="13">SUBTOTAL(9,N20:N21)</f>
+        <f t="shared" ref="N19:Q19" si="23">SUBTOTAL(9,N20:N21)</f>
         <v>0.41666666666666669</v>
       </c>
       <c r="O19" s="8">
         <v>1.6666666666666667</v>
       </c>
       <c r="P19" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>1.25</v>
       </c>
       <c r="Q19" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="R19" s="8">
@@ -1699,11 +2066,47 @@
         <v>2.5</v>
       </c>
       <c r="T19" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="U19" s="34">
+        <f t="shared" si="7"/>
+        <v>2400</v>
+      </c>
+      <c r="V19" s="34">
+        <f t="shared" si="8"/>
+        <v>1800</v>
+      </c>
+      <c r="W19" s="34">
+        <f t="shared" si="9"/>
+        <v>600</v>
+      </c>
+      <c r="X19" s="35">
+        <f t="shared" si="10"/>
+        <v>2400</v>
+      </c>
+      <c r="Y19" s="35">
+        <f t="shared" si="11"/>
+        <v>1800</v>
+      </c>
+      <c r="Z19" s="35">
+        <f t="shared" si="12"/>
+        <v>600</v>
+      </c>
+      <c r="AA19" s="34">
+        <f t="shared" si="13"/>
+        <v>4800</v>
+      </c>
+      <c r="AB19" s="34">
+        <f t="shared" si="14"/>
+        <v>3600</v>
+      </c>
+      <c r="AC19" s="34">
+        <f t="shared" si="15"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.25">
       <c r="K20" s="5" t="s">
         <v>2</v>
       </c>
@@ -1731,11 +2134,47 @@
         <v>2.5</v>
       </c>
       <c r="T20" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="U20" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="34">
+        <f t="shared" si="8"/>
+        <v>1800</v>
+      </c>
+      <c r="W20" s="34">
+        <f t="shared" si="9"/>
+        <v>600</v>
+      </c>
+      <c r="X20" s="35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="35">
+        <f t="shared" si="11"/>
+        <v>1800</v>
+      </c>
+      <c r="Z20" s="35">
+        <f t="shared" si="12"/>
+        <v>600</v>
+      </c>
+      <c r="AA20" s="34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="34">
+        <f t="shared" si="14"/>
+        <v>3600</v>
+      </c>
+      <c r="AC20" s="34">
+        <f t="shared" si="15"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.25">
       <c r="K21" s="6" t="s">
         <v>5</v>
       </c>
@@ -1763,11 +2202,47 @@
         <v>2.5</v>
       </c>
       <c r="T21" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="U21" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="34">
+        <f t="shared" si="8"/>
+        <v>1800</v>
+      </c>
+      <c r="W21" s="34">
+        <f t="shared" si="9"/>
+        <v>600</v>
+      </c>
+      <c r="X21" s="35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="35">
+        <f t="shared" si="11"/>
+        <v>1800</v>
+      </c>
+      <c r="Z21" s="35">
+        <f t="shared" si="12"/>
+        <v>600</v>
+      </c>
+      <c r="AA21" s="34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="34">
+        <f t="shared" si="14"/>
+        <v>3600</v>
+      </c>
+      <c r="AC21" s="34">
+        <f t="shared" si="15"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.25">
       <c r="K22" s="20"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1779,62 +2254,76 @@
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.25">
       <c r="D23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="L23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L23" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C24" s="3"/>
-      <c r="D24" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="27"/>
+      <c r="D24" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="30"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="M24" s="27"/>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="L24" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" s="30"/>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C25" s="3"/>
       <c r="D25" s="13" t="s">
         <v>3</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="13" t="s">
         <v>3</v>
       </c>
       <c r="M25" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C26" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" s="8">
         <f>SUBTOTAL(9,D27:D36)</f>
         <v>30.5625</v>
       </c>
       <c r="E26" s="9">
-        <f t="shared" ref="E26" si="14">SUBTOTAL(9,E27:E36)</f>
+        <f t="shared" ref="E26" si="24">SUBTOTAL(9,E27:E36)</f>
         <v>27.156250000000004</v>
       </c>
+      <c r="F26" s="33">
+        <f>D26*1440</f>
+        <v>44010</v>
+      </c>
+      <c r="G26" s="33">
+        <f>E26*1440</f>
+        <v>39105.000000000007</v>
+      </c>
       <c r="K26" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L26" s="8">
         <f>SUBTOTAL(9,L27:L38)</f>
@@ -1844,8 +2333,16 @@
         <f>SUBTOTAL(9,M27:M38)</f>
         <v>27.156250000000004</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N26" s="34">
+        <f>L26*1440</f>
+        <v>44010</v>
+      </c>
+      <c r="O26" s="34">
+        <f>M26*1440</f>
+        <v>39105.000000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C27" s="4" t="s">
         <v>4</v>
       </c>
@@ -1857,6 +2354,14 @@
         <f>SUBTOTAL(9,E28:E32)</f>
         <v>12.156250000000002</v>
       </c>
+      <c r="F27" s="33">
+        <f t="shared" ref="F27:F36" si="25">D27*1440</f>
+        <v>18210</v>
+      </c>
+      <c r="G27" s="33">
+        <f t="shared" ref="G27:G36" si="26">E27*1440</f>
+        <v>17505.000000000004</v>
+      </c>
       <c r="K27" s="4" t="s">
         <v>6</v>
       </c>
@@ -1865,11 +2370,19 @@
         <v>8.5416666666666661</v>
       </c>
       <c r="M27" s="16">
-        <f t="shared" ref="M27" si="15">SUBTOTAL(9,M28:M30)</f>
+        <f t="shared" ref="M27" si="27">SUBTOTAL(9,M28:M30)</f>
         <v>8.46875</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N27" s="34">
+        <f t="shared" ref="N27:N38" si="28">L27*1440</f>
+        <v>12300</v>
+      </c>
+      <c r="O27" s="34">
+        <f t="shared" ref="O27:O38" si="29">M27*1440</f>
+        <v>12195</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C28" s="5" t="s">
         <v>0</v>
       </c>
@@ -1881,8 +2394,16 @@
         <f>SUBTOTAL(9,E29:E30)</f>
         <v>10.385416666666668</v>
       </c>
+      <c r="F28" s="33">
+        <f t="shared" si="25"/>
+        <v>14310</v>
+      </c>
+      <c r="G28" s="33">
+        <f t="shared" si="26"/>
+        <v>14955.000000000002</v>
+      </c>
       <c r="K28" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L28" s="10">
         <f>SUBTOTAL(9,L29:L30)</f>
@@ -1892,8 +2413,16 @@
         <f>SUBTOTAL(9,M29:M30)</f>
         <v>8.46875</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N28" s="34">
+        <f t="shared" si="28"/>
+        <v>12300</v>
+      </c>
+      <c r="O28" s="34">
+        <f t="shared" si="29"/>
+        <v>12195</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C29" s="6" t="s">
         <v>6</v>
       </c>
@@ -1902,6 +2431,14 @@
       </c>
       <c r="E29" s="11">
         <v>6.697916666666667</v>
+      </c>
+      <c r="F29" s="33">
+        <f t="shared" si="25"/>
+        <v>8400</v>
+      </c>
+      <c r="G29" s="33">
+        <f t="shared" si="26"/>
+        <v>9645</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>0</v>
@@ -1914,8 +2451,16 @@
         <f>E29</f>
         <v>6.697916666666667</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N29" s="34">
+        <f t="shared" si="28"/>
+        <v>8400</v>
+      </c>
+      <c r="O29" s="34">
+        <f t="shared" si="29"/>
+        <v>9645</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C30" s="6" t="s">
         <v>7</v>
       </c>
@@ -1924,6 +2469,14 @@
       </c>
       <c r="E30" s="11">
         <v>3.6875</v>
+      </c>
+      <c r="F30" s="33">
+        <f t="shared" si="25"/>
+        <v>5910</v>
+      </c>
+      <c r="G30" s="33">
+        <f t="shared" si="26"/>
+        <v>5310</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>1</v>
@@ -1936,8 +2489,16 @@
         <f>E32</f>
         <v>1.7708333333333333</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N30" s="34">
+        <f t="shared" si="28"/>
+        <v>3900</v>
+      </c>
+      <c r="O30" s="34">
+        <f t="shared" si="29"/>
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C31" s="5" t="s">
         <v>1</v>
       </c>
@@ -1949,6 +2510,14 @@
         <f>SUBTOTAL(9,E32:E32)</f>
         <v>1.7708333333333333</v>
       </c>
+      <c r="F31" s="33">
+        <f t="shared" si="25"/>
+        <v>3900</v>
+      </c>
+      <c r="G31" s="33">
+        <f t="shared" si="26"/>
+        <v>2550</v>
+      </c>
       <c r="K31" s="4" t="s">
         <v>7</v>
       </c>
@@ -1957,11 +2526,19 @@
         <v>9.5208333333333339</v>
       </c>
       <c r="M31" s="19">
-        <f t="shared" ref="M31" si="16">SUBTOTAL(9,M32:M35)</f>
+        <f t="shared" ref="M31" si="30">SUBTOTAL(9,M32:M35)</f>
         <v>14.520833333333334</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N31" s="34">
+        <f t="shared" si="28"/>
+        <v>13710</v>
+      </c>
+      <c r="O31" s="34">
+        <f t="shared" si="29"/>
+        <v>20910</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C32" s="6" t="s">
         <v>6</v>
       </c>
@@ -1971,19 +2548,35 @@
       <c r="E32" s="17">
         <v>1.7708333333333333</v>
       </c>
+      <c r="F32" s="33">
+        <f t="shared" si="25"/>
+        <v>3900</v>
+      </c>
+      <c r="G32" s="33">
+        <f t="shared" si="26"/>
+        <v>2550</v>
+      </c>
       <c r="K32" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L32" s="10">
         <f>SUBTOTAL(9,L33:L33)</f>
         <v>4.104166666666667</v>
       </c>
       <c r="M32" s="11">
-        <f t="shared" ref="M32" si="17">SUBTOTAL(9,M33:M33)</f>
+        <f t="shared" ref="M32" si="31">SUBTOTAL(9,M33:M33)</f>
         <v>3.6875</v>
       </c>
-    </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N32" s="34">
+        <f t="shared" si="28"/>
+        <v>5910</v>
+      </c>
+      <c r="O32" s="34">
+        <f t="shared" si="29"/>
+        <v>5310</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C33" s="4" t="s">
         <v>2</v>
       </c>
@@ -1995,6 +2588,14 @@
         <f>SUBTOTAL(9,E34:E36)</f>
         <v>15</v>
       </c>
+      <c r="F33" s="33">
+        <f t="shared" si="25"/>
+        <v>25800</v>
+      </c>
+      <c r="G33" s="33">
+        <f t="shared" si="26"/>
+        <v>21600</v>
+      </c>
       <c r="K33" s="6" t="s">
         <v>0</v>
       </c>
@@ -2006,8 +2607,16 @@
         <f>E30</f>
         <v>3.6875</v>
       </c>
-    </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N33" s="34">
+        <f t="shared" si="28"/>
+        <v>5910</v>
+      </c>
+      <c r="O33" s="34">
+        <f t="shared" si="29"/>
+        <v>5310</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C34" s="5" t="s">
         <v>5</v>
       </c>
@@ -2019,6 +2628,14 @@
         <f>SUBTOTAL(9,E35:E36)</f>
         <v>15</v>
       </c>
+      <c r="F34" s="33">
+        <f t="shared" si="25"/>
+        <v>25800</v>
+      </c>
+      <c r="G34" s="33">
+        <f t="shared" si="26"/>
+        <v>21600</v>
+      </c>
       <c r="K34" s="5" t="s">
         <v>2</v>
       </c>
@@ -2027,11 +2644,19 @@
         <v>5.416666666666667</v>
       </c>
       <c r="M34" s="11">
-        <f t="shared" ref="M34" si="18">SUBTOTAL(9,M35:M35)</f>
+        <f t="shared" ref="M34" si="32">SUBTOTAL(9,M35:M35)</f>
         <v>10.833333333333334</v>
       </c>
-    </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N34" s="34">
+        <f t="shared" si="28"/>
+        <v>7800</v>
+      </c>
+      <c r="O34" s="34">
+        <f t="shared" si="29"/>
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C35" s="6" t="s">
         <v>7</v>
       </c>
@@ -2040,6 +2665,14 @@
       </c>
       <c r="E35" s="18">
         <v>10.833333333333334</v>
+      </c>
+      <c r="F35" s="33">
+        <f t="shared" si="25"/>
+        <v>7800</v>
+      </c>
+      <c r="G35" s="33">
+        <f t="shared" si="26"/>
+        <v>15600</v>
       </c>
       <c r="K35" s="6" t="s">
         <v>5</v>
@@ -2052,8 +2685,16 @@
         <f>E35</f>
         <v>10.833333333333334</v>
       </c>
-    </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N35" s="34">
+        <f t="shared" si="28"/>
+        <v>7800</v>
+      </c>
+      <c r="O35" s="34">
+        <f t="shared" si="29"/>
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C36" s="6" t="s">
         <v>8</v>
       </c>
@@ -2063,32 +2704,56 @@
       <c r="E36" s="17">
         <v>4.166666666666667</v>
       </c>
+      <c r="F36" s="33">
+        <f t="shared" si="25"/>
+        <v>18000</v>
+      </c>
+      <c r="G36" s="33">
+        <f t="shared" si="26"/>
+        <v>6000</v>
+      </c>
       <c r="K36" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L36" s="8">
         <f>SUBTOTAL(9,L37:L38)</f>
         <v>12.5</v>
       </c>
       <c r="M36" s="16">
-        <f t="shared" ref="M36" si="19">SUBTOTAL(9,M37:M38)</f>
+        <f t="shared" ref="M36" si="33">SUBTOTAL(9,M37:M38)</f>
         <v>4.166666666666667</v>
       </c>
-    </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N36" s="34">
+        <f t="shared" si="28"/>
+        <v>18000</v>
+      </c>
+      <c r="O36" s="34">
+        <f t="shared" si="29"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
       <c r="K37" s="5" t="s">
         <v>2</v>
       </c>
       <c r="L37" s="10">
+        <f>SUBTOTAL(9,L38:L38)</f>
+        <v>12.5</v>
+      </c>
+      <c r="M37" s="11">
         <f>SUBTOTAL(9,M38:M39)</f>
         <v>4.166666666666667</v>
       </c>
-      <c r="M37" s="11">
-        <f>SUBTOTAL(9,N38:N39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N37" s="34">
+        <f t="shared" si="28"/>
+        <v>18000</v>
+      </c>
+      <c r="O37" s="34">
+        <f t="shared" si="29"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
       <c r="K38" s="6" t="s">
         <v>5</v>
       </c>
@@ -2100,22 +2765,30 @@
         <f>E36</f>
         <v>4.166666666666667</v>
       </c>
+      <c r="N38" s="34">
+        <f t="shared" si="28"/>
+        <v>18000</v>
+      </c>
+      <c r="O38" s="34">
+        <f t="shared" si="29"/>
+        <v>6000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L24:M24"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="R7:T7"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="L7:N7"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L24:M24"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{AF915600-9F3C-43B7-B825-E825034E34D4}">
-      <formula1>$W$5:$W$12</formula1>
+      <formula1>$AE$5:$AE$12</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
